--- a/back/public/dealer/files/salesorder/excel/salesorder_129.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_129.xlsx
@@ -119,7 +119,7 @@
     <t>SALES PERSONNEL</t>
   </si>
   <si>
-    <t>superadminnn</t>
+    <t>alfredo dagonza</t>
   </si>
 </sst>
 </file>
